--- a/examples/children_fav_games/template.xlsx
+++ b/examples/children_fav_games/template.xlsx
@@ -179,10 +179,10 @@
     <t>'!!Parent'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-14 11:51:03'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-03-14 11:51:03' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:04'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -206,7 +206,7 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-14 11:51:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -284,7 +284,7 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' id='Child' name='Child' date='2020-03-14 11:51:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Child' name='Child' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Favorite video game</t>
@@ -305,7 +305,7 @@
     <t>!Year</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' id='Parent' name='Parent' date='2020-03-14 11:51:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Parent' name='Parent' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
   </si>
 </sst>
 </file>

--- a/examples/children_fav_games/template.xlsx
+++ b/examples/children_fav_games/template.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -179,10 +179,10 @@
     <t>'!!Parent'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:04'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-29 00:18:55'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -206,7 +206,7 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -242,28 +242,43 @@
     <t>ManyToOne('Game', related_name='children')</t>
   </si>
   <si>
+    <t>Favorite video game</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
     <t>Enum([('female', 1), ('male', 2)])</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>String(primary=True, unique=True)</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
-    <t>ManyToMany('Parent', related_name='children')</t>
+    <t>ManyToMany('Parent', related_name='children', cell_dialect='json')</t>
+  </si>
+  <si>
+    <t>Parents</t>
   </si>
   <si>
     <t>column</t>
@@ -278,13 +293,19 @@
     <t>publisher</t>
   </si>
   <si>
+    <t>Publisher</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Child' name='Child' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Child' name='Child' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Favorite video game</t>
@@ -305,7 +326,7 @@
     <t>!Year</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' class='Parent' name='Parent' date='2020-04-27 01:05:04' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Parent' name='Parent' date='2020-05-29 00:18:55' objTablesVersion='1.0.0'</t>
   </si>
 </sst>
 </file>
@@ -858,13 +879,15 @@
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -873,15 +896,17 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -890,15 +915,17 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
@@ -907,15 +934,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
@@ -924,9 +953,11 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -939,7 +970,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -951,7 +982,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -960,15 +991,17 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -977,79 +1010,87 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
@@ -1081,7 +1122,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1096,36 +1137,36 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
@@ -1270,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1285,7 +1326,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
